--- a/AverageFPS_Results.xlsx
+++ b/AverageFPS_Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>OOP</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>EXTREME</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>DIFFERENCE</t>
   </si>
 </sst>
 </file>
@@ -196,8 +202,9 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -205,11 +212,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="206139776"/>
-        <c:axId val="206141312"/>
+        <c:axId val="145326464"/>
+        <c:axId val="145328000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="206139776"/>
+        <c:axId val="145326464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -218,7 +225,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206141312"/>
+        <c:crossAx val="145328000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -226,9 +233,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206141312"/>
+        <c:axId val="145328000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="360"/>
+          <c:min val="335"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -237,9 +246,516 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206139776"/>
+        <c:crossAx val="145326464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OOP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>237.63380000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230.74469999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>226.00129999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>226.96080000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>227.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ECS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>288.93060000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290.98849999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>286.7133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>287.45929999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>284.97539999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="160561408"/>
+        <c:axId val="251065088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="160561408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="251065088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="251065088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="310"/>
+          <c:min val="210"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="160561408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OOP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>137.45949999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136.82859999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135.2784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136.30019999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138.95689999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ECS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>209.66630000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207.41419999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>208.36869999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>207.76439999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205.8802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="13635584"/>
+        <c:axId val="13637120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="13635584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="13637120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="13637120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="240"/>
+          <c:min val="120"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="13635584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OOP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>67.957229999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.3048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.150019999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.489269999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.45608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ECS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>135.5951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136.24359999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.17740000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134.81659999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135.3536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="160057216"/>
+        <c:axId val="41348096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="160057216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="41348096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="41348096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="160"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="160057216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="4"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -286,6 +802,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>278423</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>101112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>593480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177312</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>593481</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>145073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>300404</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30773</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>293077</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>52754</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -581,13 +1187,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -837,6 +1446,85 @@
       </c>
       <c r="G16">
         <f>G15-G14</f>
+        <v>69.765780000000035</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>342.17240000000004</v>
+      </c>
+      <c r="C19">
+        <v>229.84211999999997</v>
+      </c>
+      <c r="D19">
+        <v>136.96472</v>
+      </c>
+      <c r="E19">
+        <v>65.871479999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>351.63457999999997</v>
+      </c>
+      <c r="C20">
+        <v>287.81342000000001</v>
+      </c>
+      <c r="D20">
+        <v>207.81876000000003</v>
+      </c>
+      <c r="E20">
+        <v>135.63726000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>9.4621799999999325</v>
+      </c>
+      <c r="C23">
+        <v>57.971300000000042</v>
+      </c>
+      <c r="D23">
+        <v>70.854040000000026</v>
+      </c>
+      <c r="E23">
         <v>69.765780000000035</v>
       </c>
     </row>

--- a/AverageFPS_Results.xlsx
+++ b/AverageFPS_Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>OOP</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>DIFFERENCE</t>
+  </si>
+  <si>
+    <t>INCREASE IN %</t>
   </si>
 </sst>
 </file>
@@ -135,6 +138,32 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7326342372340851E-2"/>
+                  <c:y val="-8.3807961504811901E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$2:$F$2</c:f>
@@ -175,6 +204,32 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8437455913704269E-2"/>
+                  <c:y val="-8.8437591134441565E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$3:$F$3</c:f>
@@ -212,11 +267,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145326464"/>
-        <c:axId val="145328000"/>
+        <c:axId val="221218304"/>
+        <c:axId val="221219840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145326464"/>
+        <c:axId val="221218304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -225,7 +280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145328000"/>
+        <c:crossAx val="221219840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -233,7 +288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145328000"/>
+        <c:axId val="221219840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -246,7 +301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145326464"/>
+        <c:crossAx val="221218304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -379,11 +434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160561408"/>
-        <c:axId val="251065088"/>
+        <c:axId val="221541120"/>
+        <c:axId val="221542656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160561408"/>
+        <c:axId val="221541120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,7 +447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251065088"/>
+        <c:crossAx val="221542656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -400,7 +455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="251065088"/>
+        <c:axId val="221542656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="310"/>
@@ -413,7 +468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160561408"/>
+        <c:crossAx val="221541120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -548,11 +603,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="13635584"/>
-        <c:axId val="13637120"/>
+        <c:axId val="221569024"/>
+        <c:axId val="221570560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13635584"/>
+        <c:axId val="221569024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -561,7 +616,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13637120"/>
+        <c:crossAx val="221570560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -569,7 +624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13637120"/>
+        <c:axId val="221570560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="240"/>
@@ -582,7 +637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13635584"/>
+        <c:crossAx val="221569024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -717,11 +772,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160057216"/>
-        <c:axId val="41348096"/>
+        <c:axId val="221420544"/>
+        <c:axId val="221426432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160057216"/>
+        <c:axId val="221420544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,7 +785,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41348096"/>
+        <c:crossAx val="221426432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -738,7 +793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41348096"/>
+        <c:axId val="221426432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -751,11 +806,403 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160057216"/>
+        <c:crossAx val="221420544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
         <c:minorUnit val="4"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OOP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3888888888888888E-2"/>
+                  <c:y val="-9.259623797025383E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$18:$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LOW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MEDIUM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HIGH</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EXTREME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>342.17240000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>229.84211999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.96472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.871479999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ECS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7777777777777776E-2"/>
+                  <c:y val="-7.2907553223574802E-7"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$18:$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LOW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MEDIUM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HIGH</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EXTREME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>351.63457999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>287.81342000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>207.81876000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135.63726000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="175876736"/>
+        <c:axId val="39978112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="175876736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39978112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39978112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="175876736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INCREASE IN %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$25:$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LOW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MEDIUM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HIGH</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EXTREME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="163989760"/>
+        <c:axId val="163995648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="163989760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163995648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="163995648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163989760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -892,6 +1339,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>36635</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>351693</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>8791</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>87924</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>115766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>402982</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1466</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1187,18 +1694,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -1206,7 +1713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1225,12 +1732,12 @@
       <c r="F2" s="1">
         <v>341.9427</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f>SUM(B2:F2)/5</f>
         <v>342.17240000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1249,12 +1756,12 @@
       <c r="F3" s="1">
         <v>351.71550000000002</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f>SUM(B3:F3)/5</f>
         <v>351.63457999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>5</v>
       </c>
@@ -1263,12 +1770,12 @@
         <v>9.4621799999999325</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1287,12 +1794,12 @@
       <c r="F6" s="1">
         <v>227.87</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f>SUM(B6:F6)/5</f>
         <v>229.84211999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1311,12 +1818,13 @@
       <c r="F7" s="1">
         <v>284.97539999999998</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <f>SUM(B7:F7)/5</f>
         <v>287.81342000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>3</v>
       </c>
@@ -1325,12 +1833,12 @@
         <v>57.971300000000042</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1349,12 +1857,12 @@
       <c r="F10" s="1">
         <v>138.95689999999999</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <f>SUM(B10:F10)/5</f>
         <v>136.96472</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1373,12 +1881,12 @@
       <c r="F11" s="1">
         <v>205.8802</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <f>SUM(B11:F11)/5</f>
         <v>207.81876000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>3</v>
       </c>
@@ -1387,12 +1895,12 @@
         <v>70.854040000000026</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1411,12 +1919,12 @@
       <c r="F14" s="1">
         <v>67.45608</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <f>SUM(B14:F14)/5</f>
         <v>65.871479999999991</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1435,12 +1943,12 @@
       <c r="F15" s="1">
         <v>135.3536</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <f>SUM(B15:F15)/5</f>
         <v>135.63726000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>3</v>
       </c>
@@ -1467,16 +1975,16 @@
       <c r="A19" t="s">
         <v>0</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>342.17240000000004</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>229.84211999999997</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>136.96472</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>65.871479999999991</v>
       </c>
     </row>
@@ -1484,16 +1992,16 @@
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>351.63457999999997</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>287.81342000000001</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>207.81876000000003</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>135.63726000000003</v>
       </c>
     </row>
@@ -1526,6 +2034,37 @@
       </c>
       <c r="E23">
         <v>69.765780000000035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="C26" s="1">
+        <v>25.22</v>
+      </c>
+      <c r="D26" s="1">
+        <v>51.74</v>
+      </c>
+      <c r="E26" s="1">
+        <v>105.92</v>
       </c>
     </row>
   </sheetData>

--- a/AverageFPS_Results.xlsx
+++ b/AverageFPS_Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>OOP</t>
   </si>
@@ -45,13 +45,22 @@
     <t>EXTREME</t>
   </si>
   <si>
-    <t>MEDIUM</t>
-  </si>
-  <si>
     <t>DIFFERENCE</t>
   </si>
   <si>
-    <t>INCREASE IN %</t>
+    <t>Nisko</t>
+  </si>
+  <si>
+    <t>Srednje</t>
+  </si>
+  <si>
+    <t>Visoko</t>
+  </si>
+  <si>
+    <t>Ekstremno</t>
+  </si>
+  <si>
+    <t>Poboljšanje performansa u %</t>
   </si>
 </sst>
 </file>
@@ -267,20 +276,47 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="221218304"/>
-        <c:axId val="221219840"/>
+        <c:axId val="206935168"/>
+        <c:axId val="206936704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221218304"/>
+        <c:axId val="206935168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hr-HR"/>
+                  <a:t>Izvođenje</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43851496905401771"/>
+              <c:y val="0.89256926217556143"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221219840"/>
+        <c:crossAx val="206936704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -288,7 +324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221219840"/>
+        <c:axId val="206936704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -297,11 +333,38 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hr-HR"/>
+                  <a:t>Prosječan broj osvježavanja po sekundi</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222227082726833E-2"/>
+              <c:y val="9.9837780694079906E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221218304"/>
+        <c:crossAx val="206935168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -434,20 +497,47 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="221541120"/>
-        <c:axId val="221542656"/>
+        <c:axId val="207253888"/>
+        <c:axId val="207255424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221541120"/>
+        <c:axId val="207253888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hr-HR"/>
+                  <a:t>Izvođenje</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43851496905401771"/>
+              <c:y val="0.88793963254593178"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221542656"/>
+        <c:crossAx val="207255424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -455,7 +545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221542656"/>
+        <c:axId val="207255424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="310"/>
@@ -464,11 +554,38 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hr-HR"/>
+                  <a:t>Prosječan broj osvježavanja po sekundi</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222227082726833E-2"/>
+              <c:y val="9.1585374744823575E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221541120"/>
+        <c:crossAx val="207253888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -603,20 +720,47 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="221569024"/>
-        <c:axId val="221570560"/>
+        <c:axId val="207281536"/>
+        <c:axId val="207283328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221569024"/>
+        <c:axId val="207281536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hr-HR"/>
+                  <a:t>Izvođenje</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41461920384951884"/>
+              <c:y val="0.89719889180519097"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221570560"/>
+        <c:crossAx val="207283328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -624,7 +768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221570560"/>
+        <c:axId val="207283328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="240"/>
@@ -633,11 +777,38 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hr-HR"/>
+                  <a:t>Prosječan broj ovježavanja po sekundi</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="9.0532589676290451E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221569024"/>
+        <c:crossAx val="207281536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -772,20 +943,47 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="221420544"/>
-        <c:axId val="221426432"/>
+        <c:axId val="164207232"/>
+        <c:axId val="164217216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221420544"/>
+        <c:axId val="164207232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hr-HR"/>
+                  <a:t>Izvođenje</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42017475940507437"/>
+              <c:y val="0.89719889180519097"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221426432"/>
+        <c:crossAx val="164217216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -793,7 +991,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221426432"/>
+        <c:axId val="164217216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -802,11 +1000,42 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hr-HR"/>
+                  <a:t>Prosječan broj</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="hr-HR" baseline="0"/>
+                  <a:t> osvježavanja po sekundi</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.5000000000000001E-2"/>
+              <c:y val="9.5208151064450283E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221420544"/>
+        <c:crossAx val="164207232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -898,16 +1127,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>LOW</c:v>
+                  <c:v>Nisko</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MEDIUM</c:v>
+                  <c:v>Srednje</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>HIGH</c:v>
+                  <c:v>Visoko</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>EXTREME</c:v>
+                  <c:v>Ekstremno</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -981,16 +1210,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>LOW</c:v>
+                  <c:v>Nisko</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MEDIUM</c:v>
+                  <c:v>Srednje</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>HIGH</c:v>
+                  <c:v>Visoko</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>EXTREME</c:v>
+                  <c:v>Ekstremno</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1027,20 +1256,47 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="175876736"/>
-        <c:axId val="39978112"/>
+        <c:axId val="163974144"/>
+        <c:axId val="163980032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="175876736"/>
+        <c:axId val="163974144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hr-HR"/>
+                  <a:t>Razina opterećenja</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45659208223972009"/>
+              <c:y val="0.88793963254593178"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39978112"/>
+        <c:crossAx val="163980032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1048,18 +1304,45 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39978112"/>
+        <c:axId val="163980032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hr-HR"/>
+                  <a:t>Prosječan broj osvježavanja po sekundi</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.1137266695829688"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175876736"/>
+        <c:crossAx val="163974144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1110,7 +1393,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>INCREASE IN %</c:v>
+                  <c:v>Poboljšanje performansa u %</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1121,16 +1404,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>LOW</c:v>
+                  <c:v>Nisko</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MEDIUM</c:v>
+                  <c:v>Srednje</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>HIGH</c:v>
+                  <c:v>Visoko</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>EXTREME</c:v>
+                  <c:v>Ekstremno</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1168,20 +1451,47 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="163989760"/>
-        <c:axId val="163995648"/>
+        <c:axId val="164025088"/>
+        <c:axId val="164026624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163989760"/>
+        <c:axId val="164025088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hr-HR"/>
+                  <a:t>Razina opterećenja</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36798687664041996"/>
+              <c:y val="0.89256926217556143"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163995648"/>
+        <c:crossAx val="164026624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1189,18 +1499,38 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163995648"/>
+        <c:axId val="164026624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hr-HR"/>
+                  <a:t>Poboljšanje u %</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163989760"/>
+        <c:crossAx val="164025088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1696,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,16 +2289,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2007,21 +2337,21 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>9.4621799999999325</v>
@@ -2038,21 +2368,21 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1">
         <v>1.6</v>
